--- a/data/input/dictionnaire_joueurs.xlsx
+++ b/data/input/dictionnaire_joueurs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_WorkSpace\BabyFoot\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_WorkSpace\BabyFoot\Gamelle_Connectee\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="264">
   <si>
     <t>id_player</t>
   </si>
@@ -83,9 +83,6 @@
     <t>TOURNILLON</t>
   </si>
   <si>
-    <t>Adri</t>
-  </si>
-  <si>
     <t>Mathieu</t>
   </si>
   <si>
@@ -816,6 +813,12 @@
   </si>
   <si>
     <t>MONINO</t>
+  </si>
+  <si>
+    <t>Casper</t>
+  </si>
+  <si>
+    <t>Tournicoti</t>
   </si>
 </sst>
 </file>
@@ -846,7 +849,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -856,6 +859,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -932,6 +941,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1212,11 +1222,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1241,1709 +1251,1719 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D67" s="5"/>
     </row>
     <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D78" s="5"/>
     </row>
     <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D79" s="5"/>
     </row>
     <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D86" s="5"/>
     </row>
     <row r="87" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D88" s="5"/>
     </row>
     <row r="89" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D93" s="5"/>
     </row>
     <row r="94" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D95" s="5"/>
     </row>
     <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D100" s="5"/>
     </row>
     <row r="101" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D102" s="5"/>
     </row>
     <row r="103" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D107" s="5"/>
     </row>
     <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>70</v>
+        <v>208</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D109" s="5"/>
     </row>
     <row r="110" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D110" s="5"/>
     </row>
     <row r="111" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D111" s="5"/>
     </row>
     <row r="112" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D112" s="5"/>
     </row>
     <row r="113" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D113" s="5"/>
     </row>
     <row r="114" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D114" s="5"/>
     </row>
     <row r="115" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D115" s="5"/>
     </row>
     <row r="116" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D116" s="5"/>
     </row>
     <row r="117" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D117" s="5"/>
     </row>
     <row r="118" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>226</v>
+        <v>116</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D118" s="5"/>
     </row>
     <row r="119" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D119" s="5"/>
     </row>
     <row r="120" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>7</v>
+        <v>227</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D120" s="5"/>
     </row>
     <row r="121" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>231</v>
+        <v>7</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D121" s="5"/>
     </row>
     <row r="122" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D122" s="5"/>
     </row>
     <row r="123" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D123" s="5"/>
     </row>
     <row r="124" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D124" s="5"/>
     </row>
     <row r="125" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D125" s="5"/>
     </row>
     <row r="126" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D126" s="5"/>
     </row>
     <row r="127" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D127" s="5"/>
     </row>
     <row r="128" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>242</v>
+        <v>63</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D128" s="5"/>
     </row>
     <row r="129" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D129" s="5"/>
     </row>
     <row r="130" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>245</v>
+        <v>13</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D130" s="5"/>
     </row>
     <row r="131" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D131" s="5"/>
     </row>
     <row r="132" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D132" s="5"/>
     </row>
     <row r="133" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>249</v>
+        <v>59</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D133" s="5"/>
     </row>
     <row r="134" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D134" s="5"/>
     </row>
     <row r="135" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D135" s="5"/>
     </row>
     <row r="136" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D136" s="5"/>
     </row>
     <row r="137" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D137" s="5"/>
     </row>
     <row r="138" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D138" s="5"/>
     </row>
     <row r="139" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D139" s="5"/>
     </row>
     <row r="140" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>258</v>
+        <v>107</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D140" s="5"/>
     </row>
     <row r="141" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
+        <v>139</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D141" s="5"/>
+    </row>
+    <row r="142" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A142" s="4">
         <v>140</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B142" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="D142" s="5"/>
+    </row>
+    <row r="143" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="6">
+        <v>141</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C143" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D141" s="5"/>
-    </row>
-    <row r="142" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A142" s="6">
-        <v>141</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="D142" s="7"/>
+      <c r="D143" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>

--- a/data/input/dictionnaire_joueurs.xlsx
+++ b/data/input/dictionnaire_joueurs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_WorkSpace\BabyFoot\Gamelle_Connectee\data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FabSN\Documents\GitHub\BabyFootConnecte\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0493C9FA-4BEE-4060-A9A9-F9588C4C3586}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REF_PLAYERS" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="265">
   <si>
     <t>id_player</t>
   </si>
@@ -815,16 +816,19 @@
     <t>MONINO</t>
   </si>
   <si>
-    <t>Casper</t>
-  </si>
-  <si>
     <t>Tournicoti</t>
+  </si>
+  <si>
+    <t>Rémi</t>
+  </si>
+  <si>
+    <t>Pas d'amis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1221,23 +1225,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1251,17 +1255,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C2" s="8"/>
+        <v>263</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>264</v>
+      </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1275,7 +1281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1289,7 +1295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1303,7 +1309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1317,7 +1323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1328,10 +1334,10 @@
         <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1345,7 +1351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1357,7 +1363,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1369,7 +1375,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1381,7 +1387,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1393,7 +1399,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1405,7 +1411,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1417,7 +1423,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1429,7 +1435,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -1441,7 +1447,7 @@
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1453,7 +1459,7 @@
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1465,7 +1471,7 @@
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1477,7 +1483,7 @@
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1489,7 +1495,7 @@
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -1501,7 +1507,7 @@
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1513,7 +1519,7 @@
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -1525,7 +1531,7 @@
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -1537,7 +1543,7 @@
       </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -1549,7 +1555,7 @@
       </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -1561,7 +1567,7 @@
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -1573,7 +1579,7 @@
       </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -1585,7 +1591,7 @@
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -1597,7 +1603,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -1609,7 +1615,7 @@
       </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -1621,7 +1627,7 @@
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -1633,7 +1639,7 @@
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -1645,7 +1651,7 @@
       </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -1657,7 +1663,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -1669,7 +1675,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -1681,7 +1687,7 @@
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -1693,7 +1699,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -1705,7 +1711,7 @@
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -1717,7 +1723,7 @@
       </c>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -1729,7 +1735,7 @@
       </c>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -1741,7 +1747,7 @@
       </c>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -1753,7 +1759,7 @@
       </c>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -1765,7 +1771,7 @@
       </c>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -1777,7 +1783,7 @@
       </c>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -1789,7 +1795,7 @@
       </c>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -1801,7 +1807,7 @@
       </c>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -1813,7 +1819,7 @@
       </c>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -1825,7 +1831,7 @@
       </c>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -1837,7 +1843,7 @@
       </c>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -1849,7 +1855,7 @@
       </c>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -1861,7 +1867,7 @@
       </c>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -1873,7 +1879,7 @@
       </c>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -1885,7 +1891,7 @@
       </c>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -1897,7 +1903,7 @@
       </c>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -1909,7 +1915,7 @@
       </c>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -1921,7 +1927,7 @@
       </c>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -1933,7 +1939,7 @@
       </c>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -1945,7 +1951,7 @@
       </c>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -1957,7 +1963,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -1969,7 +1975,7 @@
       </c>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -1981,7 +1987,7 @@
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -1993,7 +1999,7 @@
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>61</v>
       </c>
@@ -2005,7 +2011,7 @@
       </c>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -2017,7 +2023,7 @@
       </c>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -2029,7 +2035,7 @@
       </c>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -2041,7 +2047,7 @@
       </c>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -2053,7 +2059,7 @@
       </c>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -2065,7 +2071,7 @@
       </c>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>67</v>
       </c>
@@ -2077,7 +2083,7 @@
       </c>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>68</v>
       </c>
@@ -2089,7 +2095,7 @@
       </c>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>69</v>
       </c>
@@ -2101,7 +2107,7 @@
       </c>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>70</v>
       </c>
@@ -2113,7 +2119,7 @@
       </c>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>71</v>
       </c>
@@ -2125,7 +2131,7 @@
       </c>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>72</v>
       </c>
@@ -2137,7 +2143,7 @@
       </c>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>73</v>
       </c>
@@ -2149,7 +2155,7 @@
       </c>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>74</v>
       </c>
@@ -2161,7 +2167,7 @@
       </c>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>75</v>
       </c>
@@ -2173,7 +2179,7 @@
       </c>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>76</v>
       </c>
@@ -2185,7 +2191,7 @@
       </c>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>77</v>
       </c>
@@ -2197,7 +2203,7 @@
       </c>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>78</v>
       </c>
@@ -2209,7 +2215,7 @@
       </c>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>79</v>
       </c>
@@ -2221,7 +2227,7 @@
       </c>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>80</v>
       </c>
@@ -2233,7 +2239,7 @@
       </c>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>81</v>
       </c>
@@ -2245,7 +2251,7 @@
       </c>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>82</v>
       </c>
@@ -2257,7 +2263,7 @@
       </c>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>83</v>
       </c>
@@ -2269,7 +2275,7 @@
       </c>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>84</v>
       </c>
@@ -2281,7 +2287,7 @@
       </c>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>85</v>
       </c>
@@ -2293,7 +2299,7 @@
       </c>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>86</v>
       </c>
@@ -2305,7 +2311,7 @@
       </c>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>87</v>
       </c>
@@ -2317,7 +2323,7 @@
       </c>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>88</v>
       </c>
@@ -2329,7 +2335,7 @@
       </c>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>89</v>
       </c>
@@ -2341,7 +2347,7 @@
       </c>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>90</v>
       </c>
@@ -2353,7 +2359,7 @@
       </c>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>91</v>
       </c>
@@ -2365,7 +2371,7 @@
       </c>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>92</v>
       </c>
@@ -2377,7 +2383,7 @@
       </c>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>93</v>
       </c>
@@ -2389,7 +2395,7 @@
       </c>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>94</v>
       </c>
@@ -2401,7 +2407,7 @@
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>95</v>
       </c>
@@ -2413,7 +2419,7 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>96</v>
       </c>
@@ -2425,7 +2431,7 @@
       </c>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>97</v>
       </c>
@@ -2437,7 +2443,7 @@
       </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>98</v>
       </c>
@@ -2449,7 +2455,7 @@
       </c>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>99</v>
       </c>
@@ -2461,7 +2467,7 @@
       </c>
       <c r="D101" s="5"/>
     </row>
-    <row r="102" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>100</v>
       </c>
@@ -2473,7 +2479,7 @@
       </c>
       <c r="D102" s="5"/>
     </row>
-    <row r="103" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>101</v>
       </c>
@@ -2485,7 +2491,7 @@
       </c>
       <c r="D103" s="5"/>
     </row>
-    <row r="104" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>102</v>
       </c>
@@ -2497,7 +2503,7 @@
       </c>
       <c r="D104" s="5"/>
     </row>
-    <row r="105" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>103</v>
       </c>
@@ -2509,7 +2515,7 @@
       </c>
       <c r="D105" s="5"/>
     </row>
-    <row r="106" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>104</v>
       </c>
@@ -2521,7 +2527,7 @@
       </c>
       <c r="D106" s="5"/>
     </row>
-    <row r="107" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>105</v>
       </c>
@@ -2533,7 +2539,7 @@
       </c>
       <c r="D107" s="5"/>
     </row>
-    <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>106</v>
       </c>
@@ -2545,7 +2551,7 @@
       </c>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>107</v>
       </c>
@@ -2557,7 +2563,7 @@
       </c>
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>108</v>
       </c>
@@ -2569,7 +2575,7 @@
       </c>
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>109</v>
       </c>
@@ -2581,7 +2587,7 @@
       </c>
       <c r="D111" s="5"/>
     </row>
-    <row r="112" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>110</v>
       </c>
@@ -2593,7 +2599,7 @@
       </c>
       <c r="D112" s="5"/>
     </row>
-    <row r="113" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>111</v>
       </c>
@@ -2605,7 +2611,7 @@
       </c>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>112</v>
       </c>
@@ -2617,7 +2623,7 @@
       </c>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>113</v>
       </c>
@@ -2629,7 +2635,7 @@
       </c>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>114</v>
       </c>
@@ -2641,7 +2647,7 @@
       </c>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>115</v>
       </c>
@@ -2653,7 +2659,7 @@
       </c>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>116</v>
       </c>
@@ -2665,7 +2671,7 @@
       </c>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>117</v>
       </c>
@@ -2677,7 +2683,7 @@
       </c>
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>118</v>
       </c>
@@ -2689,7 +2695,7 @@
       </c>
       <c r="D120" s="5"/>
     </row>
-    <row r="121" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>119</v>
       </c>
@@ -2701,7 +2707,7 @@
       </c>
       <c r="D121" s="5"/>
     </row>
-    <row r="122" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
         <v>120</v>
       </c>
@@ -2713,7 +2719,7 @@
       </c>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
         <v>121</v>
       </c>
@@ -2725,7 +2731,7 @@
       </c>
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
         <v>122</v>
       </c>
@@ -2737,7 +2743,7 @@
       </c>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
         <v>123</v>
       </c>
@@ -2749,7 +2755,7 @@
       </c>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
         <v>124</v>
       </c>
@@ -2761,7 +2767,7 @@
       </c>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
         <v>125</v>
       </c>
@@ -2773,7 +2779,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
         <v>126</v>
       </c>
@@ -2785,7 +2791,7 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
         <v>127</v>
       </c>
@@ -2797,7 +2803,7 @@
       </c>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
         <v>128</v>
       </c>
@@ -2809,7 +2815,7 @@
       </c>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
         <v>129</v>
       </c>
@@ -2821,7 +2827,7 @@
       </c>
       <c r="D131" s="5"/>
     </row>
-    <row r="132" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
         <v>130</v>
       </c>
@@ -2833,7 +2839,7 @@
       </c>
       <c r="D132" s="5"/>
     </row>
-    <row r="133" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
         <v>131</v>
       </c>
@@ -2845,7 +2851,7 @@
       </c>
       <c r="D133" s="5"/>
     </row>
-    <row r="134" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
         <v>132</v>
       </c>
@@ -2857,7 +2863,7 @@
       </c>
       <c r="D134" s="5"/>
     </row>
-    <row r="135" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
         <v>133</v>
       </c>
@@ -2869,7 +2875,7 @@
       </c>
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
         <v>134</v>
       </c>
@@ -2881,7 +2887,7 @@
       </c>
       <c r="D136" s="5"/>
     </row>
-    <row r="137" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
         <v>135</v>
       </c>
@@ -2893,7 +2899,7 @@
       </c>
       <c r="D137" s="5"/>
     </row>
-    <row r="138" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
         <v>136</v>
       </c>
@@ -2905,7 +2911,7 @@
       </c>
       <c r="D138" s="5"/>
     </row>
-    <row r="139" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
         <v>137</v>
       </c>
@@ -2917,7 +2923,7 @@
       </c>
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
         <v>138</v>
       </c>
@@ -2929,7 +2935,7 @@
       </c>
       <c r="D140" s="5"/>
     </row>
-    <row r="141" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
         <v>139</v>
       </c>
@@ -2941,7 +2947,7 @@
       </c>
       <c r="D141" s="5"/>
     </row>
-    <row r="142" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
         <v>140</v>
       </c>
@@ -2953,7 +2959,7 @@
       </c>
       <c r="D142" s="5"/>
     </row>
-    <row r="143" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
         <v>141</v>
       </c>
@@ -2966,7 +2972,7 @@
       <c r="D143" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
